--- a/survey_results.xlsx
+++ b/survey_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/572453d936140585/PhD/8 PED Landscape/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/572453d936140585/PhD/Paper/8 PED Landscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2AA9F44599C406100157FC8658A90829A5916697" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FFDC8A-4469-4EC4-9805-6FCA1C468B67}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2AA9F44599C406100157FC8658A90829A5916697" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31997355-813C-4819-8447-E366AFD6EB52}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3855" windowWidth="30960" windowHeight="17520" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PED Landscape Survey" sheetId="1" r:id="rId1"/>
@@ -2850,16 +2850,18 @@
   <dimension ref="A1:AAK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:713" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:713" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="2" spans="1:713" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:713" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:713" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:713" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:713" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:713" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -11054,7 +11056,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:713" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:713" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="6" spans="1:713" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:713" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29</v>
       </c>
